--- a/Sprint4 backolg.xlsx
+++ b/Sprint4 backolg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fady Hemaya\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24152F81-A987-48EB-983A-78ED65BFD0C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="80" windowWidth="16280" windowHeight="9270"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,19 +88,19 @@
     <t>Change Pricing Page</t>
   </si>
   <si>
-    <t>Profile view and Edit page</t>
-  </si>
-  <si>
     <t>Add Lawyer/reviewer Page</t>
   </si>
   <si>
     <t>Notifications Page</t>
+  </si>
+  <si>
+    <t>Sign in page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,6 +162,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -203,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +245,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,19 +489,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -481,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -521,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -541,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -561,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -581,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -601,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.6</v>
       </c>
@@ -621,12 +664,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -641,12 +684,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -661,12 +704,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -681,8 +724,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
